--- a/CodeSystem-SectionType.xlsx
+++ b/CodeSystem-SectionType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T03:36:07+00:00</t>
+    <t>2021-10-01T03:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SectionType.xlsx
+++ b/CodeSystem-SectionType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T03:36:23+00:00</t>
+    <t>2021-10-11T05:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SectionType.xlsx
+++ b/CodeSystem-SectionType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T05:18:50+00:00</t>
+    <t>2021-10-11T05:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SectionType.xlsx
+++ b/CodeSystem-SectionType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T05:19:03+00:00</t>
+    <t>2022-04-22T03:07:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SectionType.xlsx
+++ b/CodeSystem-SectionType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T03:07:53+00:00</t>
+    <t>2022-04-22T03:08:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
